--- a/mhrn_procedure_codes.xlsx
+++ b/mhrn_procedure_codes.xlsx
@@ -1,52 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ghc.org\home$\stewcc1\MH_VDW\gitRepo\MHRN-Central-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973983D0-3956-44C0-8B08-981BBB8EFE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{506D0E6F-D21A-45F8-8E65-8B6974F10BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360"/>
   </bookViews>
   <sheets>
-    <sheet name="mhrn_px_codes" sheetId="1" r:id="rId1"/>
+    <sheet name="mhpx_codelist_new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
   <si>
     <t>px</t>
   </si>
   <si>
+    <t>EffectEndBegin</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>EffectEndBegin</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>codetype</t>
   </si>
   <si>
-    <t>Psychotherapy</t>
+    <t>Inpatient</t>
+  </si>
+  <si>
+    <t>AddOn</t>
+  </si>
+  <si>
+    <t>Other MH Specialty</t>
+  </si>
+  <si>
+    <t>cpt4</t>
+  </si>
+  <si>
+    <t>Individual Psychotherapy</t>
   </si>
   <si>
     <t>Psychiatric diagnostic evaluation</t>
   </si>
   <si>
-    <t>cpt4</t>
-  </si>
-  <si>
-    <t>Other MH Specialty</t>
+    <t>Medication Management</t>
   </si>
   <si>
     <t>Psychiatric diagnostic evaluation with medical services</t>
@@ -148,6 +157,9 @@
     <t>Psychotherapy for crisis, first 60 minutes</t>
   </si>
   <si>
+    <t>Psychotherapy for crisis 30 min add-on</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -157,12 +169,18 @@
     <t>Psychoanalysis</t>
   </si>
   <si>
+    <t>Family Psychotherapy</t>
+  </si>
+  <si>
     <t>Family psychotherapy (without the patient present)</t>
   </si>
   <si>
     <t>Family psychotherapy (conjoint psychotherapy, with patient present)</t>
   </si>
   <si>
+    <t>Group Psychotherapy</t>
+  </si>
+  <si>
     <t>Multiple-family group psychotherapy</t>
   </si>
   <si>
@@ -175,16 +193,79 @@
     <t>Pharmacologic management</t>
   </si>
   <si>
+    <t>Medication management</t>
+  </si>
+  <si>
+    <t>Brain Stimulation Therapies</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>ECT</t>
+  </si>
+  <si>
+    <t>Individual Psychophysiological Therapy Incorporating Biofeedback Training by any Modality, 20-30</t>
+  </si>
+  <si>
+    <t>Individual Psychophysiological Therapy Incorporating Biofeedback Training by any Modality, 45</t>
+  </si>
+  <si>
+    <t>Hypnotherapy</t>
+  </si>
+  <si>
+    <t>environmental intervention for med mgmt</t>
+  </si>
+  <si>
+    <t>Psychiatric Evaluation of Hospital Records</t>
+  </si>
+  <si>
+    <t>Interpretation or Explanation of Results of Psychiatric etc</t>
+  </si>
+  <si>
+    <t>Preparation of Report of Patient Psychiatric Status  etc</t>
+  </si>
+  <si>
+    <t>Unlisted Psychiatric Service or Procedure</t>
+  </si>
+  <si>
+    <t>C9255</t>
+  </si>
+  <si>
+    <t>AP inj long-acting</t>
+  </si>
+  <si>
+    <t>Injection, paliperidone palmitate</t>
+  </si>
+  <si>
+    <t>HCPCS</t>
+  </si>
+  <si>
+    <t>C9497</t>
+  </si>
+  <si>
+    <t>AP inj short-acting</t>
+  </si>
+  <si>
+    <t>Loxapine, inhalation powder, 10 mg</t>
+  </si>
+  <si>
+    <t>J0400</t>
+  </si>
+  <si>
+    <t>Injection, aripiprazole, intramuscular, 0.25 mg</t>
+  </si>
+  <si>
     <t>J0401</t>
   </si>
   <si>
-    <t>AP inj long-acting</t>
-  </si>
-  <si>
     <t>Injection, aripiprazole, extended release</t>
   </si>
   <si>
-    <t>HCPCS</t>
+    <t>J1630</t>
+  </si>
+  <si>
+    <t>Injection, haloperidol, up to 5 mg</t>
   </si>
   <si>
     <t>J1631</t>
@@ -193,61 +274,52 @@
     <t>Injection, haloperidol decanoate</t>
   </si>
   <si>
+    <t>J2358</t>
+  </si>
+  <si>
+    <t>Injection, olanzapine, long-acting</t>
+  </si>
+  <si>
     <t>J2426</t>
   </si>
   <si>
     <t>Injection, paliperidone palmitate extended release</t>
   </si>
   <si>
+    <t>J2680</t>
+  </si>
+  <si>
+    <t>Injection, fluphenazine decanoate, up to 25 mg</t>
+  </si>
+  <si>
     <t>J2794</t>
   </si>
   <si>
     <t>Injection, risperidone, long acting</t>
   </si>
   <si>
-    <t>J2358</t>
-  </si>
-  <si>
-    <t>Injection, olanzapine, long-acting</t>
-  </si>
-  <si>
-    <t>C9255</t>
-  </si>
-  <si>
-    <t>Injection, paliperidone palmitate</t>
-  </si>
-  <si>
-    <t>J0400</t>
-  </si>
-  <si>
-    <t>AP inj short-acting</t>
-  </si>
-  <si>
-    <t>Injection, aripiprazole, intramuscular, 0.25 mg</t>
-  </si>
-  <si>
-    <t>J1630</t>
-  </si>
-  <si>
-    <t>Injection, haloperidol, up to 5 mg</t>
-  </si>
-  <si>
-    <t>J2680</t>
-  </si>
-  <si>
-    <t>Injection, fluphenazine decanoate, up to 25 mg</t>
-  </si>
-  <si>
     <t>J3486</t>
   </si>
   <si>
     <t>Injection, ziprasidone mesylate, 10 mg</t>
   </si>
   <si>
-    <t>C9497</t>
-  </si>
-  <si>
-    <t>Loxapine, inhalation powder, 10 mg</t>
+    <t>J1943</t>
+  </si>
+  <si>
+    <t>Injection, aripiprazole lauroxil, (aristada initio), 1 mg</t>
+  </si>
+  <si>
+    <t>J1944</t>
+  </si>
+  <si>
+    <t>Injection, aripiprazole lauroxil, (aristada), 1 mg</t>
+  </si>
+  <si>
+    <t>J2798</t>
+  </si>
+  <si>
+    <t>Injection, risperidone, (perseris), 0.5 mg</t>
   </si>
 </sst>
 </file>
@@ -1088,20 +1160,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,906 +1186,1641 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>90785</v>
+      </c>
+      <c r="B2">
+        <v>2013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>90791</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
         <v>2013</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>90792</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>90801</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>90802</v>
+      </c>
+      <c r="B6">
+        <v>2012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>90804</v>
+      </c>
+      <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>90792</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>90805</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>90806</v>
+      </c>
+      <c r="B9">
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>90807</v>
+      </c>
+      <c r="B10">
+        <v>2012</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>90808</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>90809</v>
+      </c>
+      <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>90810</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>90811</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>90812</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>90813</v>
+      </c>
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>90814</v>
+      </c>
+      <c r="B17">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>90815</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>90816</v>
+      </c>
+      <c r="B19">
+        <v>2012</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>90817</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>90818</v>
+      </c>
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>90819</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>90820</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>90821</v>
+      </c>
+      <c r="B24">
+        <v>2012</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>90822</v>
+      </c>
+      <c r="B25">
+        <v>2012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>90823</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>90826</v>
+      </c>
+      <c r="B27">
+        <v>2012</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>90827</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>90828</v>
+      </c>
+      <c r="B29">
+        <v>2012</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>90832</v>
+      </c>
+      <c r="B30">
         <v>2013</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>90833</v>
+      </c>
+      <c r="B31">
+        <v>2013</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>90834</v>
+      </c>
+      <c r="B32">
+        <v>2013</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>90836</v>
+      </c>
+      <c r="B33">
+        <v>2013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>90837</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>90838</v>
+      </c>
+      <c r="B35">
+        <v>2013</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>90839</v>
+      </c>
+      <c r="B36">
+        <v>2013</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>90840</v>
+      </c>
+      <c r="B37">
+        <v>2013</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>90844</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>90845</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>90801</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2012</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>90802</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2012</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>90846</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>90847</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>90849</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>90853</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>90857</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>90862</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>90804</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2012</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>90805</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2012</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>90806</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>2012</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>90807</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>2012</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>90808</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>2012</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>90809</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>2012</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>90810</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2012</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>90811</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2012</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>90812</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>2012</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>90813</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2012</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>90814</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>2012</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>90815</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>2012</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>90816</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2012</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>90817</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>2012</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>90818</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>2012</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>90819</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2012</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>90820</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>2012</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>90821</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>2012</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>90822</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>2012</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>90823</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>2012</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>90826</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>2012</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>90827</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>2012</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>90828</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>2012</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>90832</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>2013</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>90833</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>2013</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>90834</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>2013</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>90836</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>2013</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>90837</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>2013</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>90838</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>2013</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>90839</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>2013</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>90844</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>90845</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>90846</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>90847</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>90849</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>90853</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>90857</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>90862</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>90863</v>
+      </c>
+      <c r="B46">
+        <v>2013</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>90867</v>
+      </c>
+      <c r="B47">
+        <v>2013</v>
+      </c>
+      <c r="C47" t="s">
         <v>58</v>
       </c>
-      <c r="E46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="D47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>90868</v>
+      </c>
+      <c r="B48">
+        <v>2013</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>90869</v>
+      </c>
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>90870</v>
+      </c>
+      <c r="B50">
+        <v>2013</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
         <v>60</v>
       </c>
-      <c r="E47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>90875</v>
+      </c>
+      <c r="B51">
+        <v>2013</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>90876</v>
+      </c>
+      <c r="B52">
+        <v>2013</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>62</v>
       </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>90880</v>
+      </c>
+      <c r="B53">
+        <v>2013</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>90882</v>
+      </c>
+      <c r="B54">
+        <v>2013</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="E49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>90885</v>
+      </c>
+      <c r="B55">
+        <v>2013</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>90887</v>
+      </c>
+      <c r="B56">
+        <v>2013</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
         <v>66</v>
       </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>90889</v>
+      </c>
+      <c r="B57">
+        <v>2013</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
         <v>67</v>
       </c>
-      <c r="E50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>90899</v>
+      </c>
+      <c r="B58">
+        <v>2013</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
         <v>68</v>
       </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
         <v>70</v>
       </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="E59" t="s">
         <v>72</v>
       </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="E53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
         <v>74</v>
       </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D60" t="s">
         <v>75</v>
       </c>
-      <c r="E54" t="s">
-        <v>54</v>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
